--- a/Code/Results/Cases/Case_3_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.108097366511174</v>
+        <v>0.6773940773868503</v>
       </c>
       <c r="C2">
-        <v>0.4766650137735837</v>
+        <v>0.1887535822251891</v>
       </c>
       <c r="D2">
-        <v>0.06956493067944081</v>
+        <v>0.02199359142910851</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2670923975796597</v>
+        <v>0.3026035079680653</v>
       </c>
       <c r="G2">
-        <v>0.1669735462070534</v>
+        <v>0.1640119456867097</v>
       </c>
       <c r="H2">
-        <v>0.1427907414444647</v>
+        <v>0.3333932871030996</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8555884406839738</v>
+        <v>0.8281289212184788</v>
       </c>
       <c r="O2">
-        <v>0.6045915486749891</v>
+        <v>0.8963404678724913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.84084064081307</v>
+        <v>0.5917434162316226</v>
       </c>
       <c r="C3">
-        <v>0.4255234157656957</v>
+        <v>0.1717223696886379</v>
       </c>
       <c r="D3">
-        <v>0.06071754249764894</v>
+        <v>0.01917051137701264</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2431755315824802</v>
+        <v>0.299854229014997</v>
       </c>
       <c r="G3">
-        <v>0.1511516990607831</v>
+        <v>0.162391475602135</v>
       </c>
       <c r="H3">
-        <v>0.1403079316381479</v>
+        <v>0.3359207621008977</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8223443625772546</v>
+        <v>0.8190346368419341</v>
       </c>
       <c r="O3">
-        <v>0.5655454167983578</v>
+        <v>0.8979701823889457</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.676462365637775</v>
+        <v>0.5389689900325152</v>
       </c>
       <c r="C4">
-        <v>0.3940330035007094</v>
+        <v>0.1612131111165525</v>
       </c>
       <c r="D4">
-        <v>0.05527697304075474</v>
+        <v>0.01743127524508736</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2290979045590475</v>
+        <v>0.298434719021671</v>
       </c>
       <c r="G4">
-        <v>0.1419579977224146</v>
+        <v>0.161589695288562</v>
       </c>
       <c r="H4">
-        <v>0.1391384955587327</v>
+        <v>0.3376728840177776</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8026416362760926</v>
+        <v>0.8137666279988878</v>
       </c>
       <c r="O4">
-        <v>0.5434106477945022</v>
+        <v>0.8997916614376322</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.609396075424712</v>
+        <v>0.5174182322895717</v>
       </c>
       <c r="C5">
-        <v>0.381177178328727</v>
+        <v>0.1569178077826621</v>
       </c>
       <c r="D5">
-        <v>0.05305749807669002</v>
+        <v>0.01672109954305512</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2235044353076603</v>
+        <v>0.2979237117355638</v>
       </c>
       <c r="G5">
-        <v>0.1383337292005038</v>
+        <v>0.1613113830567983</v>
       </c>
       <c r="H5">
-        <v>0.1387472959906759</v>
+        <v>0.3384372339156272</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7947844143551634</v>
+        <v>0.8116997483698185</v>
       </c>
       <c r="O5">
-        <v>0.5348263678529861</v>
+        <v>0.9007399732316088</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.59825460976873</v>
+        <v>0.5138370915066162</v>
       </c>
       <c r="C6">
-        <v>0.3790410547370868</v>
+        <v>0.156203820580231</v>
       </c>
       <c r="D6">
-        <v>0.05268880186232394</v>
+        <v>0.0166030909140531</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2225840280612701</v>
+        <v>0.2978429311933155</v>
       </c>
       <c r="G6">
-        <v>0.1377390555182103</v>
+        <v>0.1612680892286562</v>
       </c>
       <c r="H6">
-        <v>0.1386873812872338</v>
+        <v>0.33856719421604</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7934899198626226</v>
+        <v>0.8113613818661491</v>
       </c>
       <c r="O6">
-        <v>0.5334265140052281</v>
+        <v>0.9009098736704146</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.675558226099298</v>
+        <v>0.5386785279663968</v>
       </c>
       <c r="C7">
-        <v>0.3938597203481322</v>
+        <v>0.1611552340436049</v>
       </c>
       <c r="D7">
-        <v>0.05524705055707102</v>
+        <v>0.0174217032630537</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2290219011830459</v>
+        <v>0.2984275543798489</v>
       </c>
       <c r="G7">
-        <v>0.1419086359548416</v>
+        <v>0.1615857460358967</v>
       </c>
       <c r="H7">
-        <v>0.1391328791661408</v>
+        <v>0.3376829884675772</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8025349838336808</v>
+        <v>0.813738429337107</v>
       </c>
       <c r="O7">
-        <v>0.5432931472080469</v>
+        <v>0.8998036169145962</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.01599936460812</v>
+        <v>0.6479010084711092</v>
       </c>
       <c r="C8">
-        <v>0.4590494010948873</v>
+        <v>0.1828922448564185</v>
       </c>
       <c r="D8">
-        <v>0.06651585561375839</v>
+        <v>0.02102143695555725</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2587139715309874</v>
+        <v>0.3015997695910286</v>
       </c>
       <c r="G8">
-        <v>0.1614046564414693</v>
+        <v>0.1634130126074211</v>
       </c>
       <c r="H8">
-        <v>0.1418585765837292</v>
+        <v>0.3342231961404067</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8439746113821087</v>
+        <v>0.8249278988588316</v>
       </c>
       <c r="O8">
-        <v>0.5907301392310131</v>
+        <v>0.8967318123662835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.681888753454757</v>
+        <v>0.8605583399490229</v>
       </c>
       <c r="C9">
-        <v>0.5862246824937074</v>
+        <v>0.2250905936805339</v>
       </c>
       <c r="D9">
-        <v>0.08856530804734319</v>
+        <v>0.0280322226050842</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3222075349653508</v>
+        <v>0.3099556784406872</v>
       </c>
       <c r="G9">
-        <v>0.2041840549311473</v>
+        <v>0.1685369038263147</v>
       </c>
       <c r="H9">
-        <v>0.1502054203412939</v>
+        <v>0.3290278382903367</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9311825444129198</v>
+        <v>0.8493599595803261</v>
       </c>
       <c r="O9">
-        <v>0.6996165215562513</v>
+        <v>0.8972384541274749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.170895689078009</v>
+        <v>1.015796166096266</v>
       </c>
       <c r="C10">
-        <v>0.6793393780394581</v>
+        <v>0.2558154813813189</v>
       </c>
       <c r="D10">
-        <v>0.1047614921253341</v>
+        <v>0.03315161726075644</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3727219199102478</v>
+        <v>0.3174036466312842</v>
       </c>
       <c r="G10">
-        <v>0.238990703398315</v>
+        <v>0.1732519745600811</v>
       </c>
       <c r="H10">
-        <v>0.1584372410307751</v>
+        <v>0.3261805387543788</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9993509186599141</v>
+        <v>0.8688078743485192</v>
       </c>
       <c r="O10">
-        <v>0.7911313513452569</v>
+        <v>0.9016179939203539</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.39350992223234</v>
+        <v>1.08618640142646</v>
       </c>
       <c r="C11">
-        <v>0.7216510784989509</v>
+        <v>0.2697291004296289</v>
       </c>
       <c r="D11">
-        <v>0.1121350151622806</v>
+        <v>0.03547334063576102</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3966944777512111</v>
+        <v>0.3210777283609474</v>
       </c>
       <c r="G11">
-        <v>0.2556995756487908</v>
+        <v>0.1756058347595442</v>
       </c>
       <c r="H11">
-        <v>0.1627009753765734</v>
+        <v>0.3250959962312052</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.031363661918178</v>
+        <v>0.8779764625393796</v>
       </c>
       <c r="O11">
-        <v>0.8356958816892757</v>
+        <v>0.9044861938670579</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.477848519969086</v>
+        <v>1.112807028855286</v>
       </c>
       <c r="C12">
-        <v>0.737668458117156</v>
+        <v>0.2749883682131724</v>
       </c>
       <c r="D12">
-        <v>0.1149285272236966</v>
+        <v>0.03635144921832989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4059285131194912</v>
+        <v>0.3225102277540799</v>
       </c>
       <c r="G12">
-        <v>0.2621650745182009</v>
+        <v>0.1765274066515587</v>
       </c>
       <c r="H12">
-        <v>0.1643957406714662</v>
+        <v>0.3247156211905562</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.0436399745074</v>
+        <v>0.8814942376869226</v>
       </c>
       <c r="O12">
-        <v>0.8530312410649969</v>
+        <v>0.9056986773332198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.459682671458722</v>
+        <v>1.107075369225413</v>
       </c>
       <c r="C13">
-        <v>0.7342190307884096</v>
+        <v>0.273856120730926</v>
       </c>
       <c r="D13">
-        <v>0.1143268276859288</v>
+        <v>0.03616238162229024</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4039326333814941</v>
+        <v>0.3221998795021932</v>
       </c>
       <c r="G13">
-        <v>0.2607662619233508</v>
+        <v>0.1763275831123607</v>
       </c>
       <c r="H13">
-        <v>0.1640270847340162</v>
+        <v>0.3247961930909682</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.040989052288438</v>
+        <v>0.880734590224705</v>
       </c>
       <c r="O13">
-        <v>0.8492766877749034</v>
+        <v>0.9054319211655582</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.400447622911713</v>
+        <v>1.088377200785658</v>
       </c>
       <c r="C14">
-        <v>0.7229689314528116</v>
+        <v>0.2701619766926342</v>
       </c>
       <c r="D14">
-        <v>0.11236480975289</v>
+        <v>0.03554560506803739</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3974509589469406</v>
+        <v>0.3211947546823524</v>
       </c>
       <c r="G14">
-        <v>0.2562286527320765</v>
+        <v>0.1756810464953844</v>
       </c>
       <c r="H14">
-        <v>0.1628387648480896</v>
+        <v>0.3250640948340617</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.032370502439022</v>
+        <v>0.8782649559138491</v>
       </c>
       <c r="O14">
-        <v>0.8371126335833026</v>
+        <v>0.9045834109204236</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.364170076982418</v>
+        <v>1.076919469665995</v>
       </c>
       <c r="C15">
-        <v>0.716077300387127</v>
+        <v>0.2678979549421285</v>
       </c>
       <c r="D15">
-        <v>0.1111632038313388</v>
+        <v>0.03516766965496743</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3935014895625883</v>
+        <v>0.3205844551657222</v>
       </c>
       <c r="G15">
-        <v>0.2534676147503276</v>
+        <v>0.17528896416826</v>
       </c>
       <c r="H15">
-        <v>0.1621214967743541</v>
+        <v>0.3252321411729966</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.027111713701913</v>
+        <v>0.8767581895739767</v>
       </c>
       <c r="O15">
-        <v>0.8297228317988754</v>
+        <v>0.9040801413123916</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.156351938737487</v>
+        <v>1.011191251478181</v>
       </c>
       <c r="C16">
-        <v>0.6765734001062924</v>
+        <v>0.2549048844709887</v>
       </c>
       <c r="D16">
-        <v>0.1042797724642952</v>
+        <v>0.03299973934598199</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3711763652583002</v>
+        <v>0.3171692982268155</v>
       </c>
       <c r="G16">
-        <v>0.2379173902601863</v>
+        <v>0.1731023633995363</v>
       </c>
       <c r="H16">
-        <v>0.1581695069275426</v>
+        <v>0.3262556577035554</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9972797938722664</v>
+        <v>0.8682151215649583</v>
       </c>
       <c r="O16">
-        <v>0.7882811777239453</v>
+        <v>0.901448210596854</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.02891488942214</v>
+        <v>0.9708093758545715</v>
       </c>
       <c r="C17">
-        <v>0.652328149312865</v>
+        <v>0.2469175501011591</v>
       </c>
       <c r="D17">
-        <v>0.1000588303720917</v>
+        <v>0.03166792321938772</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3577442668246817</v>
+        <v>0.3151475120591343</v>
       </c>
       <c r="G17">
-        <v>0.2286105519413724</v>
+        <v>0.1718145930409136</v>
       </c>
       <c r="H17">
-        <v>0.1558818710153318</v>
+        <v>0.3269375323890316</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9792423253975358</v>
+        <v>0.8630563033023719</v>
       </c>
       <c r="O17">
-        <v>0.7636357582684923</v>
+        <v>0.900058239087727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.955630731450697</v>
+        <v>0.9475614147517604</v>
       </c>
       <c r="C18">
-        <v>0.6383784283103751</v>
+        <v>0.2423175146695939</v>
       </c>
       <c r="D18">
-        <v>0.09763157088529795</v>
+        <v>0.03090123138186129</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.350111132976231</v>
+        <v>0.3140115455461796</v>
       </c>
       <c r="G18">
-        <v>0.2233390963163799</v>
+        <v>0.1710935590468168</v>
       </c>
       <c r="H18">
-        <v>0.1546145869805642</v>
+        <v>0.3273495604826593</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9689614118309038</v>
+        <v>0.8601193860578604</v>
       </c>
       <c r="O18">
-        <v>0.749734131760448</v>
+        <v>0.8993411868079022</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.930819955937295</v>
+        <v>0.9396864386664561</v>
       </c>
       <c r="C19">
-        <v>0.633654475775387</v>
+        <v>0.2407590156271056</v>
       </c>
       <c r="D19">
-        <v>0.09680981667742117</v>
+        <v>0.03064152990184255</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3475422052321093</v>
+        <v>0.3136315462962997</v>
       </c>
       <c r="G19">
-        <v>0.221567920354353</v>
+        <v>0.1708528003226277</v>
       </c>
       <c r="H19">
-        <v>0.1541936732306297</v>
+        <v>0.3274924716907037</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9654962912917284</v>
+        <v>0.8591302130556784</v>
       </c>
       <c r="O19">
-        <v>0.7450731824829262</v>
+        <v>0.8991125490673397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.042479192576764</v>
+        <v>0.9751103207169649</v>
       </c>
       <c r="C20">
-        <v>0.6549095519836214</v>
+        <v>0.2477684324434222</v>
       </c>
       <c r="D20">
-        <v>0.100508100174352</v>
+        <v>0.03180976668704716</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3591644533229896</v>
+        <v>0.3153599488088332</v>
       </c>
       <c r="G20">
-        <v>0.2295927490671588</v>
+        <v>0.1719496426891496</v>
       </c>
       <c r="H20">
-        <v>0.1561203346891489</v>
+        <v>0.3268628930146278</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9811526730068039</v>
+        <v>0.8636023355880553</v>
       </c>
       <c r="O20">
-        <v>0.7662307043529069</v>
+        <v>0.9001976705778674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.41784518844679</v>
+        <v>1.093870260262918</v>
       </c>
       <c r="C21">
-        <v>0.7262734845814975</v>
+        <v>0.2712472979729625</v>
       </c>
       <c r="D21">
-        <v>0.1129410621567359</v>
+        <v>0.0357267969759647</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3993504360913107</v>
+        <v>0.321488865279548</v>
       </c>
       <c r="G21">
-        <v>0.2575576053414608</v>
+        <v>0.1758701285766264</v>
       </c>
       <c r="H21">
-        <v>0.163185581276764</v>
+        <v>0.3249845826433386</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.034897726416759</v>
+        <v>0.8789891068981888</v>
       </c>
       <c r="O21">
-        <v>0.8406727213140357</v>
+        <v>0.9048292064440773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.663406712874917</v>
+        <v>1.171284076883126</v>
       </c>
       <c r="C22">
-        <v>0.7728848154125671</v>
+        <v>0.2865364241713735</v>
       </c>
       <c r="D22">
-        <v>0.1210746579126862</v>
+        <v>0.03828049584716098</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.42653119388779</v>
+        <v>0.3257346742103451</v>
       </c>
       <c r="G22">
-        <v>0.2766461313701143</v>
+        <v>0.1786085925073735</v>
       </c>
       <c r="H22">
-        <v>0.1682733015827012</v>
+        <v>0.3239337209379585</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.070924459978698</v>
+        <v>0.8893121906308892</v>
       </c>
       <c r="O22">
-        <v>0.8920237884303788</v>
+        <v>0.9085928788622084</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.532318474256783</v>
+        <v>1.129986006636955</v>
       </c>
       <c r="C23">
-        <v>0.7480095729475806</v>
+        <v>0.2783815611016962</v>
       </c>
       <c r="D23">
-        <v>0.1167327097465005</v>
+        <v>0.03691813381807663</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4119358125821506</v>
+        <v>0.3234466001393628</v>
       </c>
       <c r="G23">
-        <v>0.2663796601640627</v>
+        <v>0.1771308450872695</v>
       </c>
       <c r="H23">
-        <v>0.165512949790326</v>
+        <v>0.3244784096036426</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.051610524661328</v>
+        <v>0.8837782793908815</v>
       </c>
       <c r="O23">
-        <v>0.8643567142102597</v>
+        <v>0.9065165970544342</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.036346831189462</v>
+        <v>0.9731659627175304</v>
       </c>
       <c r="C24">
-        <v>0.6537425336022125</v>
+        <v>0.2473837734567041</v>
       </c>
       <c r="D24">
-        <v>0.1003049871509916</v>
+        <v>0.03174564240696043</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3585221102960219</v>
+        <v>0.3152638239735452</v>
       </c>
       <c r="G24">
-        <v>0.2291484520774034</v>
+        <v>0.1718885265692407</v>
       </c>
       <c r="H24">
-        <v>0.1560123764539867</v>
+        <v>0.3268965751502506</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.98028872814767</v>
+        <v>0.8633553841638957</v>
       </c>
       <c r="O24">
-        <v>0.7650566993174408</v>
+        <v>0.9001343780201552</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.501850214720207</v>
+        <v>0.8031997146240428</v>
       </c>
       <c r="C25">
-        <v>0.5518832234630509</v>
+        <v>0.2137224316142579</v>
       </c>
       <c r="D25">
-        <v>0.08260295186794764</v>
+        <v>0.02614099429465</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.304401416331217</v>
+        <v>0.3074658435403776</v>
       </c>
       <c r="G25">
-        <v>0.192063779652095</v>
+        <v>0.1669846417909255</v>
       </c>
       <c r="H25">
-        <v>0.147599069874822</v>
+        <v>0.3302630864121028</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9069069534183143</v>
+        <v>0.8424860056958039</v>
       </c>
       <c r="O25">
-        <v>0.6682770288126534</v>
+        <v>0.896399542589009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6773940773868503</v>
+        <v>2.108097366511117</v>
       </c>
       <c r="C2">
-        <v>0.1887535822251891</v>
+        <v>0.4766650137737827</v>
       </c>
       <c r="D2">
-        <v>0.02199359142910851</v>
+        <v>0.06956493067953318</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3026035079680653</v>
+        <v>0.2670923975796455</v>
       </c>
       <c r="G2">
-        <v>0.1640119456867097</v>
+        <v>0.1669735462071671</v>
       </c>
       <c r="H2">
-        <v>0.3333932871030996</v>
+        <v>0.142790741444351</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8281289212184788</v>
+        <v>0.8555884406839738</v>
       </c>
       <c r="O2">
-        <v>0.8963404678724913</v>
+        <v>0.6045915486750602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5917434162316226</v>
+        <v>1.840840640813184</v>
       </c>
       <c r="C3">
-        <v>0.1717223696886379</v>
+        <v>0.4255234157659231</v>
       </c>
       <c r="D3">
-        <v>0.01917051137701264</v>
+        <v>0.06071754249764894</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.299854229014997</v>
+        <v>0.2431755315824802</v>
       </c>
       <c r="G3">
-        <v>0.162391475602135</v>
+        <v>0.1511516990608257</v>
       </c>
       <c r="H3">
-        <v>0.3359207621008977</v>
+        <v>0.1403079316381479</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8190346368419341</v>
+        <v>0.8223443625772404</v>
       </c>
       <c r="O3">
-        <v>0.8979701823889457</v>
+        <v>0.5655454167983009</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5389689900325152</v>
+        <v>1.676462365637775</v>
       </c>
       <c r="C4">
-        <v>0.1612131111165525</v>
+        <v>0.3940330035007378</v>
       </c>
       <c r="D4">
-        <v>0.01743127524508736</v>
+        <v>0.05527697304071211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.298434719021671</v>
+        <v>0.2290979045590475</v>
       </c>
       <c r="G4">
-        <v>0.161589695288562</v>
+        <v>0.1419579977224217</v>
       </c>
       <c r="H4">
-        <v>0.3376728840177776</v>
+        <v>0.1391384955587327</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8137666279988878</v>
+        <v>0.8026416362760926</v>
       </c>
       <c r="O4">
-        <v>0.8997916614376322</v>
+        <v>0.5434106477945164</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5174182322895717</v>
+        <v>1.609396075424769</v>
       </c>
       <c r="C5">
-        <v>0.1569178077826621</v>
+        <v>0.3811771783284996</v>
       </c>
       <c r="D5">
-        <v>0.01672109954305512</v>
+        <v>0.05305749807668292</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2979237117355638</v>
+        <v>0.2235044353076603</v>
       </c>
       <c r="G5">
-        <v>0.1613113830567983</v>
+        <v>0.1383337292005109</v>
       </c>
       <c r="H5">
-        <v>0.3384372339156272</v>
+        <v>0.1387472959906688</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8116997483698185</v>
+        <v>0.7947844143551777</v>
       </c>
       <c r="O5">
-        <v>0.9007399732316088</v>
+        <v>0.534826367852915</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5138370915066162</v>
+        <v>1.598254609768617</v>
       </c>
       <c r="C6">
-        <v>0.156203820580231</v>
+        <v>0.3790410547370868</v>
       </c>
       <c r="D6">
-        <v>0.0166030909140531</v>
+        <v>0.05268880186244473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2978429311933155</v>
+        <v>0.2225840280613056</v>
       </c>
       <c r="G6">
-        <v>0.1612680892286562</v>
+        <v>0.1377390555182103</v>
       </c>
       <c r="H6">
-        <v>0.33856719421604</v>
+        <v>0.138687381287248</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8113613818661491</v>
+        <v>0.7934899198626368</v>
       </c>
       <c r="O6">
-        <v>0.9009098736704146</v>
+        <v>0.5334265140052281</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5386785279663968</v>
+        <v>1.675558226099326</v>
       </c>
       <c r="C7">
-        <v>0.1611552340436049</v>
+        <v>0.3938597203483596</v>
       </c>
       <c r="D7">
-        <v>0.0174217032630537</v>
+        <v>0.05524705055722023</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2984275543798489</v>
+        <v>0.2290219011830246</v>
       </c>
       <c r="G7">
-        <v>0.1615857460358967</v>
+        <v>0.1419086359548487</v>
       </c>
       <c r="H7">
-        <v>0.3376829884675772</v>
+        <v>0.1391328791661408</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.813738429337107</v>
+        <v>0.802534983833695</v>
       </c>
       <c r="O7">
-        <v>0.8998036169145962</v>
+        <v>0.5432931472080469</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6479010084711092</v>
+        <v>2.015999364608035</v>
       </c>
       <c r="C8">
-        <v>0.1828922448564185</v>
+        <v>0.4590494010948873</v>
       </c>
       <c r="D8">
-        <v>0.02102143695555725</v>
+        <v>0.0665158556137655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3015997695910286</v>
+        <v>0.2587139715309803</v>
       </c>
       <c r="G8">
-        <v>0.1634130126074211</v>
+        <v>0.161404656441519</v>
       </c>
       <c r="H8">
-        <v>0.3342231961404067</v>
+        <v>0.1418585765836156</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8249278988588316</v>
+        <v>0.8439746113820945</v>
       </c>
       <c r="O8">
-        <v>0.8967318123662835</v>
+        <v>0.5907301392309989</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8605583399490229</v>
+        <v>2.681888753454643</v>
       </c>
       <c r="C9">
-        <v>0.2250905936805339</v>
+        <v>0.5862246824935085</v>
       </c>
       <c r="D9">
-        <v>0.0280322226050842</v>
+        <v>0.08856530804738583</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3099556784406872</v>
+        <v>0.3222075349653579</v>
       </c>
       <c r="G9">
-        <v>0.1685369038263147</v>
+        <v>0.2041840549311544</v>
       </c>
       <c r="H9">
-        <v>0.3290278382903367</v>
+        <v>0.1502054203411802</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8493599595803261</v>
+        <v>0.9311825444129624</v>
       </c>
       <c r="O9">
-        <v>0.8972384541274749</v>
+        <v>0.6996165215562513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.015796166096266</v>
+        <v>3.170895689077952</v>
       </c>
       <c r="C10">
-        <v>0.2558154813813189</v>
+        <v>0.6793393780394865</v>
       </c>
       <c r="D10">
-        <v>0.03315161726075644</v>
+        <v>0.1047614921252915</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3174036466312842</v>
+        <v>0.3727219199102407</v>
       </c>
       <c r="G10">
-        <v>0.1732519745600811</v>
+        <v>0.2389907033983079</v>
       </c>
       <c r="H10">
-        <v>0.3261805387543788</v>
+        <v>0.1584372410307751</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8688078743485192</v>
+        <v>0.9993509186599283</v>
       </c>
       <c r="O10">
-        <v>0.9016179939203539</v>
+        <v>0.7911313513452569</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.08618640142646</v>
+        <v>3.39350992223217</v>
       </c>
       <c r="C11">
-        <v>0.2697291004296289</v>
+        <v>0.721651078498752</v>
       </c>
       <c r="D11">
-        <v>0.03547334063576102</v>
+        <v>0.1121350151620675</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3210777283609474</v>
+        <v>0.3966944777512253</v>
       </c>
       <c r="G11">
-        <v>0.1756058347595442</v>
+        <v>0.2556995756487908</v>
       </c>
       <c r="H11">
-        <v>0.3250959962312052</v>
+        <v>0.1627009753765734</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8779764625393796</v>
+        <v>1.03136366191822</v>
       </c>
       <c r="O11">
-        <v>0.9044861938670579</v>
+        <v>0.8356958816892757</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.112807028855286</v>
+        <v>3.477848519969257</v>
       </c>
       <c r="C12">
-        <v>0.2749883682131724</v>
+        <v>0.7376684581171844</v>
       </c>
       <c r="D12">
-        <v>0.03635144921832989</v>
+        <v>0.1149285272235971</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3225102277540799</v>
+        <v>0.4059285131194841</v>
       </c>
       <c r="G12">
-        <v>0.1765274066515587</v>
+        <v>0.2621650745181938</v>
       </c>
       <c r="H12">
-        <v>0.3247156211905562</v>
+        <v>0.1643957406714662</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8814942376869226</v>
+        <v>1.043639974507357</v>
       </c>
       <c r="O12">
-        <v>0.9056986773332198</v>
+        <v>0.8530312410649401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.107075369225413</v>
+        <v>3.459682671458722</v>
       </c>
       <c r="C13">
-        <v>0.273856120730926</v>
+        <v>0.7342190307881822</v>
       </c>
       <c r="D13">
-        <v>0.03616238162229024</v>
+        <v>0.1143268276858151</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3221998795021932</v>
+        <v>0.4039326333815012</v>
       </c>
       <c r="G13">
-        <v>0.1763275831123607</v>
+        <v>0.2607662619233579</v>
       </c>
       <c r="H13">
-        <v>0.3247961930909682</v>
+        <v>0.1640270847339025</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.880734590224705</v>
+        <v>1.040989052288381</v>
       </c>
       <c r="O13">
-        <v>0.9054319211655582</v>
+        <v>0.8492766877748181</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.088377200785658</v>
+        <v>3.400447622911599</v>
       </c>
       <c r="C14">
-        <v>0.2701619766926342</v>
+        <v>0.7229689314531811</v>
       </c>
       <c r="D14">
-        <v>0.03554560506803739</v>
+        <v>0.1123648097529326</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3211947546823524</v>
+        <v>0.3974509589469548</v>
       </c>
       <c r="G14">
-        <v>0.1756810464953844</v>
+        <v>0.2562286527320197</v>
       </c>
       <c r="H14">
-        <v>0.3250640948340617</v>
+        <v>0.1628387648480896</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8782649559138491</v>
+        <v>1.032370502439079</v>
       </c>
       <c r="O14">
-        <v>0.9045834109204236</v>
+        <v>0.837112633583331</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.076919469665995</v>
+        <v>3.364170076982248</v>
       </c>
       <c r="C15">
-        <v>0.2678979549421285</v>
+        <v>0.7160773003868428</v>
       </c>
       <c r="D15">
-        <v>0.03516766965496743</v>
+        <v>0.1111632038313104</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3205844551657222</v>
+        <v>0.3935014895625883</v>
       </c>
       <c r="G15">
-        <v>0.17528896416826</v>
+        <v>0.2534676147503276</v>
       </c>
       <c r="H15">
-        <v>0.3252321411729966</v>
+        <v>0.162121496774347</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8767581895739767</v>
+        <v>1.027111713701842</v>
       </c>
       <c r="O15">
-        <v>0.9040801413123916</v>
+        <v>0.8297228317988186</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.011191251478181</v>
+        <v>3.15635193873743</v>
       </c>
       <c r="C16">
-        <v>0.2549048844709887</v>
+        <v>0.6765734001062071</v>
       </c>
       <c r="D16">
-        <v>0.03299973934598199</v>
+        <v>0.1042797724643663</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3171692982268155</v>
+        <v>0.3711763652583144</v>
       </c>
       <c r="G16">
-        <v>0.1731023633995363</v>
+        <v>0.2379173902601295</v>
       </c>
       <c r="H16">
-        <v>0.3262556577035554</v>
+        <v>0.1581695069276563</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8682151215649583</v>
+        <v>0.9972797938722522</v>
       </c>
       <c r="O16">
-        <v>0.901448210596854</v>
+        <v>0.788281177723988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9708093758545715</v>
+        <v>3.028914889422197</v>
       </c>
       <c r="C17">
-        <v>0.2469175501011591</v>
+        <v>0.6523281493132913</v>
       </c>
       <c r="D17">
-        <v>0.03166792321938772</v>
+        <v>0.1000588303719638</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3151475120591343</v>
+        <v>0.3577442668246817</v>
       </c>
       <c r="G17">
-        <v>0.1718145930409136</v>
+        <v>0.2286105519413653</v>
       </c>
       <c r="H17">
-        <v>0.3269375323890316</v>
+        <v>0.1558818710154455</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8630563033023719</v>
+        <v>0.9792423253975358</v>
       </c>
       <c r="O17">
-        <v>0.900058239087727</v>
+        <v>0.7636357582684212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9475614147517604</v>
+        <v>2.955630731450754</v>
       </c>
       <c r="C18">
-        <v>0.2423175146695939</v>
+        <v>0.6383784283104035</v>
       </c>
       <c r="D18">
-        <v>0.03090123138186129</v>
+        <v>0.09763157088532637</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3140115455461796</v>
+        <v>0.3501111329762168</v>
       </c>
       <c r="G18">
-        <v>0.1710935590468168</v>
+        <v>0.223339096316387</v>
       </c>
       <c r="H18">
-        <v>0.3273495604826593</v>
+        <v>0.1546145869805642</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8601193860578604</v>
+        <v>0.968961411830918</v>
       </c>
       <c r="O18">
-        <v>0.8993411868079022</v>
+        <v>0.7497341317604054</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9396864386664561</v>
+        <v>2.930819955937125</v>
       </c>
       <c r="C19">
-        <v>0.2407590156271056</v>
+        <v>0.6336544757751881</v>
       </c>
       <c r="D19">
-        <v>0.03064152990184255</v>
+        <v>0.09680981667753485</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3136315462962997</v>
+        <v>0.3475422052321093</v>
       </c>
       <c r="G19">
-        <v>0.1708528003226277</v>
+        <v>0.221567920354353</v>
       </c>
       <c r="H19">
-        <v>0.3274924716907037</v>
+        <v>0.1541936732306439</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8591302130556784</v>
+        <v>0.9654962912917426</v>
       </c>
       <c r="O19">
-        <v>0.8991125490673397</v>
+        <v>0.7450731824828694</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9751103207169649</v>
+        <v>3.04247919257665</v>
       </c>
       <c r="C20">
-        <v>0.2477684324434222</v>
+        <v>0.6549095519834225</v>
       </c>
       <c r="D20">
-        <v>0.03180976668704716</v>
+        <v>0.1005081001743235</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3153599488088332</v>
+        <v>0.3591644533229967</v>
       </c>
       <c r="G20">
-        <v>0.1719496426891496</v>
+        <v>0.2295927490671374</v>
       </c>
       <c r="H20">
-        <v>0.3268628930146278</v>
+        <v>0.1561203346892484</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8636023355880553</v>
+        <v>0.9811526730068181</v>
       </c>
       <c r="O20">
-        <v>0.9001976705778674</v>
+        <v>0.7662307043528642</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.093870260262918</v>
+        <v>3.41784518844662</v>
       </c>
       <c r="C21">
-        <v>0.2712472979729625</v>
+        <v>0.7262734845817533</v>
       </c>
       <c r="D21">
-        <v>0.0357267969759647</v>
+        <v>0.1129410621566507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.321488865279548</v>
+        <v>0.3993504360913178</v>
       </c>
       <c r="G21">
-        <v>0.1758701285766264</v>
+        <v>0.2575576053414608</v>
       </c>
       <c r="H21">
-        <v>0.3249845826433386</v>
+        <v>0.1631855812766432</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8789891068981888</v>
+        <v>1.034897726416759</v>
       </c>
       <c r="O21">
-        <v>0.9048292064440773</v>
+        <v>0.8406727213140925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.171284076883126</v>
+        <v>3.663406712874689</v>
       </c>
       <c r="C22">
-        <v>0.2865364241713735</v>
+        <v>0.772884815412084</v>
       </c>
       <c r="D22">
-        <v>0.03828049584716098</v>
+        <v>0.121074657912601</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3257346742103451</v>
+        <v>0.4265311938877758</v>
       </c>
       <c r="G22">
-        <v>0.1786085925073735</v>
+        <v>0.2766461313701143</v>
       </c>
       <c r="H22">
-        <v>0.3239337209379585</v>
+        <v>0.1682733015828006</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8893121906308892</v>
+        <v>1.070924459978755</v>
       </c>
       <c r="O22">
-        <v>0.9085928788622084</v>
+        <v>0.8920237884304072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.129986006636955</v>
+        <v>3.53231847425667</v>
       </c>
       <c r="C23">
-        <v>0.2783815611016962</v>
+        <v>0.7480095729475522</v>
       </c>
       <c r="D23">
-        <v>0.03691813381807663</v>
+        <v>0.1167327097464863</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3234466001393628</v>
+        <v>0.4119358125821506</v>
       </c>
       <c r="G23">
-        <v>0.1771308450872695</v>
+        <v>0.2663796601640058</v>
       </c>
       <c r="H23">
-        <v>0.3244784096036426</v>
+        <v>0.165512949790326</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8837782793908815</v>
+        <v>1.051610524661328</v>
       </c>
       <c r="O23">
-        <v>0.9065165970544342</v>
+        <v>0.8643567142102029</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9731659627175304</v>
+        <v>3.036346831189348</v>
       </c>
       <c r="C24">
-        <v>0.2473837734567041</v>
+        <v>0.653742533602184</v>
       </c>
       <c r="D24">
-        <v>0.03174564240696043</v>
+        <v>0.1003049871511053</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3152638239735452</v>
+        <v>0.3585221102960361</v>
       </c>
       <c r="G24">
-        <v>0.1718885265692407</v>
+        <v>0.2291484520772968</v>
       </c>
       <c r="H24">
-        <v>0.3268965751502506</v>
+        <v>0.1560123764539867</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8633553841638957</v>
+        <v>0.980288728147741</v>
       </c>
       <c r="O24">
-        <v>0.9001343780201552</v>
+        <v>0.765056699317384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8031997146240428</v>
+        <v>2.501850214720264</v>
       </c>
       <c r="C25">
-        <v>0.2137224316142579</v>
+        <v>0.5518832234630793</v>
       </c>
       <c r="D25">
-        <v>0.02614099429465</v>
+        <v>0.08260295186794764</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3074658435403776</v>
+        <v>0.3044014163312099</v>
       </c>
       <c r="G25">
-        <v>0.1669846417909255</v>
+        <v>0.192063779652095</v>
       </c>
       <c r="H25">
-        <v>0.3302630864121028</v>
+        <v>0.147599069874822</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8424860056958039</v>
+        <v>0.9069069534183143</v>
       </c>
       <c r="O25">
-        <v>0.896399542589009</v>
+        <v>0.6682770288126534</v>
       </c>
     </row>
   </sheetData>
